--- a/xlsx/电动车_intext.xlsx
+++ b/xlsx/电动车_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>电动车</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>電動載具</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_电动车</t>
+    <t>电动载具</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>純電動車</t>
+    <t>纯电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E7%94%B5%E8%81%94%E4%BA%A7</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%BA%90%E7%86%B1%E6%B3%B5%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>地源熱泵系統</t>
+    <t>地源热泵系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>微型發電</t>
+    <t>微型发电</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Passive_solar_building_design</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%AD%E6%B0%A7%E6%B6%88%E5%8C%96</t>
   </si>
   <si>
-    <t>厭氧消化</t>
+    <t>厌氧消化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%87%83%E6%96%99</t>
@@ -113,25 +113,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%90%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>潮汐發電</t>
+    <t>潮汐发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%B5%AA%E8%83%BD</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E4%BA%A4%E9%80%9A%E7%B3%BB%E7%BB%9F</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E5%8B%95%E5%8A%9B%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>氫動力汽車</t>
+    <t>氢动力汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E7%94%B5%E5%BC%8F%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B%E6%B1%BD%E8%BD%A6</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>Template talk-可持續能源</t>
+    <t>Template talk-可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
@@ -197,31 +197,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>電動機</t>
+    <t>电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%BD%E5%BC%95%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>牽引電動機</t>
+    <t>牵引电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>電動汽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%81%AF%E8%BB%8A</t>
   </si>
   <si>
-    <t>電聯車</t>
+    <t>电联车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E6%A9%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>電動機車</t>
+    <t>电动机车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E8%87%AA%E8%A1%8C%E8%BD%A6</t>
@@ -251,43 +248,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>原電池</t>
+    <t>原电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%BF%AA%E7%94%9F</t>
   </si>
   <si>
-    <t>愛迪生</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%84%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>蓄電池</t>
+    <t>蓄电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>電車</t>
+    <t>电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%80%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>二十一世紀</t>
+    <t>二十一世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D</t>
   </si>
   <si>
-    <t>環保</t>
+    <t>环保</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -329,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%99%AE%E9%8A%B3%E6%96%AF</t>
   </si>
   <si>
-    <t>豐田普銳斯</t>
+    <t>丰田普锐斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B%E8%BD%A6</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%87%8F%E7%94%9F%E7%94%A2</t>
   </si>
   <si>
-    <t>大量生產</t>
+    <t>大量生产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%91%9EQQ</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>社區</t>
+    <t>社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E5%88%B8</t>
@@ -383,25 +377,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>內燃機</t>
+    <t>内燃机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>電池</t>
+    <t>电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>電池電動車</t>
+    <t>电池电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E9%9B%BB%E6%B1%A0%E8%BB%8A</t>
   </si>
   <si>
-    <t>燃料電池車</t>
+    <t>燃料电池车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Agence_France-Presse</t>
@@ -419,31 +413,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A3%E8%BB%8A</t>
   </si>
   <si>
-    <t>氫氣車</t>
+    <t>氢气车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%B3%E6%B0%AB%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>鎳氫電池</t>
+    <t>镍氢电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%B0%E9%9B%A2%E5%AD%90%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>鋰離子電池</t>
+    <t>锂离子电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>燃料電池</t>
+    <t>燃料电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%BD%B1%E5%93%8D%E8%AF%84%E4%BB%B7</t>
@@ -473,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -491,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>大氣擴散模式</t>
+    <t>大气扩散模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_solid_waste_treatment_technologies</t>
@@ -527,19 +521,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%B4%E8%99%95%E7%90%86%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>廢水處理技術列表</t>
+    <t>废水处理技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B7%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>水淨化</t>
+    <t>水净化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%AA%E6%B5%81%E7%AB%99</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>自然建築</t>
+    <t>自然建筑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_architecture</t>
@@ -611,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>保育倫理</t>
+    <t>保育伦理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecoforestry</t>
@@ -635,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境維護</t>
+    <t>环境维护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_remediation</t>
@@ -653,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1923,7 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -1955,10 +1949,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1984,10 +1978,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2013,10 +2007,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2042,10 +2036,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2071,10 +2065,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2100,10 +2094,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2129,10 +2123,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2158,10 +2152,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2187,10 +2181,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2216,10 +2210,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
         <v>67</v>
-      </c>
-      <c r="F42" t="s">
-        <v>68</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2245,10 +2239,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2274,10 +2268,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2303,10 +2297,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2332,10 +2326,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2361,10 +2355,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>7</v>
@@ -2390,10 +2384,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2419,10 +2413,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2448,10 +2442,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2477,10 +2471,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -2506,10 +2500,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2535,10 +2529,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2564,10 +2558,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -2593,10 +2587,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2622,10 +2616,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2651,10 +2645,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2680,10 +2674,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2709,10 +2703,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2738,10 +2732,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2767,10 +2761,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2796,10 +2790,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2825,10 +2819,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>13</v>
@@ -2854,10 +2848,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2883,10 +2877,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2912,10 +2906,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2941,10 +2935,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2970,10 +2964,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2999,10 +2993,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3028,10 +3022,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3057,10 +3051,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -3086,10 +3080,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3115,10 +3109,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3144,10 +3138,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3173,10 +3167,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3202,10 +3196,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3231,10 +3225,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3260,10 +3254,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3289,10 +3283,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3318,10 +3312,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3347,10 +3341,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3376,10 +3370,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3405,10 +3399,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3434,10 +3428,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3463,10 +3457,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3492,10 +3486,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3521,10 +3515,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3550,10 +3544,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3579,10 +3573,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3608,10 +3602,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3637,10 +3631,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3666,10 +3660,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3695,10 +3689,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3724,10 +3718,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3753,10 +3747,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3782,10 +3776,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3869,10 +3863,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3927,10 +3921,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3956,10 +3950,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3985,10 +3979,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4014,10 +4008,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4043,10 +4037,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4072,10 +4066,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4101,10 +4095,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4130,10 +4124,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4159,10 +4153,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4188,10 +4182,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4217,10 +4211,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
